--- a/scenarios/bladder/processes/BladderExplanation.xlsx
+++ b/scenarios/bladder/processes/BladderExplanation.xlsx
@@ -58,7 +58,7 @@
     <t xml:space="preserve">CODE</t>
   </si>
   <si>
-    <t xml:space="preserve">IF [item] THEN GO(variables) ELSE FOR item IN [cart] DO INJECT_WITH(Explanation, item); FINISH();</t>
+    <t xml:space="preserve">IF [item] THEN GO(variables) ELSE FOR item IN [cart] DO INJECT_WITH(Explanation, item) END; FINISH();</t>
   </si>
   <si>
     <t xml:space="preserve">variables</t>
@@ -312,7 +312,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="14.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/scenarios/bladder/processes/BladderExplanation.xlsx
+++ b/scenarios/bladder/processes/BladderExplanation.xlsx
@@ -312,7 +312,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="14.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -365,7 +365,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="68.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="96.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>13</v>
       </c>
